--- a/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
+++ b/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
+++ b/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2074,17 +2074,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.90234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="246.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2093,28 +2093,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="39.484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="33.8515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
+++ b/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
+++ b/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
+++ b/fhir/StructureDefinition-ehealth-observation-wound-dimensions.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,7 +377,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -681,7 +681,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -764,7 +764,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -855,7 +855,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1080,7 +1080,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1139,7 +1139,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1172,7 +1172,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1184,7 +1184,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1302,7 +1302,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1382,7 +1382,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1419,7 +1419,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1554,7 +1554,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -2158,7 +2158,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -9276,7 +9276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>493</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>508</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>521</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>534</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>548</v>
       </c>
@@ -15318,12 +15318,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP109">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
